--- a/IO_sample11.xlsx
+++ b/IO_sample11.xlsx
@@ -182,7 +182,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -810,11 +810,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="31567712"/>
-        <c:axId val="73468463"/>
+        <c:axId val="25965187"/>
+        <c:axId val="25560938"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31567712"/>
+        <c:axId val="25965187"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,14 +842,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73468463"/>
+        <c:crossAx val="25560938"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73468463"/>
+        <c:axId val="25560938"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +886,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31567712"/>
+        <c:crossAx val="25965187"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -956,7 +956,7 @@
   <dimension ref="A1:N186"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/IO_sample11.xlsx
+++ b/IO_sample11.xlsx
@@ -182,7 +182,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -193,10 +193,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0505969123070191"/>
+          <c:x val="0.0505656603537721"/>
           <c:y val="0.0334481609067674"/>
-          <c:w val="0.932745796612288"/>
-          <c:h val="0.835203911545727"/>
+          <c:w val="0.932683292705794"/>
+          <c:h val="0.835092788087565"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -226,6 +226,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -273,31 +275,31 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2</c:v>
@@ -357,82 +359,82 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>3</c:v>
@@ -441,13 +443,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>3</c:v>
@@ -483,31 +485,31 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>4</c:v>
@@ -528,31 +530,31 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>4</c:v>
@@ -573,7 +575,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>1</c:v>
@@ -582,85 +584,85 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>1</c:v>
@@ -672,49 +674,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>1</c:v>
@@ -726,49 +728,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>1</c:v>
@@ -780,22 +782,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,11 +812,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="25965187"/>
-        <c:axId val="25560938"/>
+        <c:axId val="60065670"/>
+        <c:axId val="16495311"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25965187"/>
+        <c:axId val="60065670"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,14 +844,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25560938"/>
+        <c:crossAx val="16495311"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25560938"/>
+        <c:axId val="16495311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +866,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -886,7 +888,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25965187"/>
+        <c:crossAx val="60065670"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -924,9 +926,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>117000</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -935,7 +937,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5321880" y="0"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -955,8 +957,8 @@
   </sheetPr>
   <dimension ref="A1:N186"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A155" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E186" activeCellId="0" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1305,11 +1307,11 @@
         <v>2</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">E12-1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>2</v>
@@ -1335,11 +1337,11 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">E13-1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="n">
         <v>3</v>
@@ -1365,11 +1367,11 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">E14-1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1" t="n">
         <v>2</v>
@@ -1395,11 +1397,11 @@
         <v>2</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">E15-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="n">
         <v>3</v>
@@ -1425,11 +1427,11 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">E16-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1" t="n">
         <v>3</v>
@@ -1455,11 +1457,11 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">E17-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1" t="n">
         <v>1</v>
@@ -1485,11 +1487,11 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">E18-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1" t="n">
         <v>1</v>
@@ -1515,11 +1517,11 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">E19-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1" t="n">
         <v>2</v>
@@ -1545,11 +1547,11 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">E20-1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="n">
         <v>1</v>
@@ -2001,11 +2003,11 @@
         <v>3</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F40" s="1" t="n">
         <f aca="false">E40-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J40" s="0"/>
       <c r="K40" s="0"/>
@@ -2024,11 +2026,11 @@
         <v>3</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F41" s="1" t="n">
         <f aca="false">E41-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J41" s="0"/>
       <c r="K41" s="0"/>
@@ -2047,11 +2049,11 @@
         <v>2</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F42" s="1" t="n">
         <f aca="false">E42-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J42" s="0"/>
       <c r="K42" s="0"/>
@@ -2070,11 +2072,11 @@
         <v>2</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1" t="n">
         <f aca="false">E43-1</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J43" s="0"/>
       <c r="K43" s="0"/>
@@ -2093,11 +2095,11 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F44" s="1" t="n">
         <f aca="false">E44-1</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J44" s="0"/>
       <c r="K44" s="0"/>
@@ -2116,11 +2118,11 @@
         <v>2</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F45" s="1" t="n">
         <f aca="false">E45-1</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J45" s="0"/>
       <c r="K45" s="0"/>
@@ -2139,11 +2141,11 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F46" s="1" t="n">
         <f aca="false">E46-1</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J46" s="0"/>
       <c r="K46" s="0"/>
@@ -2162,11 +2164,11 @@
         <v>2</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F47" s="1" t="n">
         <f aca="false">E47-1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J47" s="0"/>
       <c r="K47" s="0"/>
@@ -2185,11 +2187,11 @@
         <v>1</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F48" s="1" t="n">
         <f aca="false">E48-1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J48" s="0"/>
       <c r="K48" s="0"/>
@@ -2208,11 +2210,11 @@
         <v>3</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F49" s="1" t="n">
         <f aca="false">E49-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" s="0"/>
       <c r="K49" s="0"/>
@@ -2231,11 +2233,11 @@
         <v>3</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F50" s="1" t="n">
         <f aca="false">E50-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J50" s="0"/>
       <c r="K50" s="0"/>
@@ -2254,11 +2256,11 @@
         <v>2</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F51" s="1" t="n">
         <f aca="false">E51-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J51" s="0"/>
       <c r="K51" s="0"/>
@@ -2277,11 +2279,11 @@
         <v>3</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F52" s="1" t="n">
         <f aca="false">E52-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J52" s="0"/>
       <c r="K52" s="0"/>
@@ -2300,11 +2302,11 @@
         <v>3</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F53" s="1" t="n">
         <f aca="false">E53-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J53" s="0"/>
       <c r="K53" s="0"/>
@@ -2323,11 +2325,11 @@
         <v>2</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F54" s="1" t="n">
         <f aca="false">E54-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J54" s="0"/>
       <c r="K54" s="0"/>
@@ -2369,11 +2371,11 @@
         <v>1</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" s="1" t="n">
         <f aca="false">E56-1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2387,11 +2389,11 @@
         <v>1</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F57" s="1" t="n">
         <f aca="false">E57-1</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2405,11 +2407,11 @@
         <v>2</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F58" s="1" t="n">
         <f aca="false">E58-1</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,11 +2425,11 @@
         <v>1</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F59" s="1" t="n">
         <f aca="false">E59-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,11 +2443,11 @@
         <v>1</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F60" s="1" t="n">
         <f aca="false">E60-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2459,11 +2461,11 @@
         <v>2</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F61" s="1" t="n">
         <f aca="false">E61-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,11 +2479,11 @@
         <v>1</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F62" s="1" t="n">
         <f aca="false">E62-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,11 +2497,11 @@
         <v>1</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F63" s="1" t="n">
         <f aca="false">E63-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,11 +2515,11 @@
         <v>2</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F64" s="1" t="n">
         <f aca="false">E64-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2531,11 +2533,11 @@
         <v>3</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F65" s="1" t="n">
         <f aca="false">E65-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,11 +2587,11 @@
         <v>1</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F68" s="1" t="n">
         <f aca="false">E68-1</f>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2603,11 +2605,11 @@
         <v>1</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F69" s="1" t="n">
         <f aca="false">E69-1</f>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,11 +2623,11 @@
         <v>3</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F70" s="1" t="n">
         <f aca="false">E70-1</f>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2852,11 +2854,11 @@
         <v>1</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F82" s="1" t="n">
         <f aca="false">E82-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2870,11 +2872,11 @@
         <v>2</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F83" s="1" t="n">
         <f aca="false">E83-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2888,11 +2890,11 @@
         <v>1</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F84" s="1" t="n">
         <f aca="false">E84-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2906,11 +2908,11 @@
         <v>1</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F85" s="1" t="n">
         <f aca="false">E85-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,11 +2926,11 @@
         <v>2</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F86" s="1" t="n">
         <f aca="false">E86-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2942,11 +2944,11 @@
         <v>1</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F87" s="1" t="n">
         <f aca="false">E87-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,11 +2962,11 @@
         <v>1</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F88" s="1" t="n">
         <f aca="false">E88-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2978,11 +2980,11 @@
         <v>2</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F89" s="1" t="n">
         <f aca="false">E89-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,11 +2998,11 @@
         <v>1</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F90" s="1" t="n">
         <f aca="false">E90-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3122,11 +3124,11 @@
         <v>1</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F97" s="1" t="n">
         <f aca="false">E97-1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3140,11 +3142,11 @@
         <v>1</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F98" s="1" t="n">
         <f aca="false">E98-1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,11 +3160,11 @@
         <v>2</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F99" s="1" t="n">
         <f aca="false">E99-1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,11 +3178,11 @@
         <v>1</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F100" s="1" t="n">
         <f aca="false">E100-1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3194,11 +3196,11 @@
         <v>1</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F101" s="1" t="n">
         <f aca="false">E101-1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,11 +3214,11 @@
         <v>2</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F102" s="1" t="n">
         <f aca="false">E102-1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,11 +3232,11 @@
         <v>1</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F103" s="1" t="n">
         <f aca="false">E103-1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3248,11 +3250,11 @@
         <v>1</v>
       </c>
       <c r="E104" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F104" s="1" t="n">
         <f aca="false">E104-1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3266,11 +3268,11 @@
         <v>2</v>
       </c>
       <c r="E105" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F105" s="1" t="n">
         <f aca="false">E105-1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3392,11 +3394,11 @@
         <v>3</v>
       </c>
       <c r="E112" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F112" s="1" t="n">
         <f aca="false">E112-1</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,11 +3448,11 @@
         <v>2</v>
       </c>
       <c r="E115" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F115" s="1" t="n">
         <f aca="false">E115-1</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,11 +3466,11 @@
         <v>3</v>
       </c>
       <c r="E116" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F116" s="1" t="n">
         <f aca="false">E116-1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3482,11 +3484,11 @@
         <v>3</v>
       </c>
       <c r="E117" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F117" s="1" t="n">
         <f aca="false">E117-1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,11 +3502,11 @@
         <v>1</v>
       </c>
       <c r="E118" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F118" s="1" t="n">
         <f aca="false">E118-1</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3518,11 +3520,11 @@
         <v>1</v>
       </c>
       <c r="E119" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F119" s="1" t="n">
         <f aca="false">E119-1</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3536,11 +3538,11 @@
         <v>2</v>
       </c>
       <c r="E120" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F120" s="1" t="n">
         <f aca="false">E120-1</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3554,11 +3556,11 @@
         <v>1</v>
       </c>
       <c r="E121" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F121" s="1" t="n">
         <f aca="false">E121-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3572,11 +3574,11 @@
         <v>1</v>
       </c>
       <c r="E122" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F122" s="1" t="n">
         <f aca="false">E122-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,11 +3592,11 @@
         <v>2</v>
       </c>
       <c r="E123" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F123" s="1" t="n">
         <f aca="false">E123-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,11 +3610,11 @@
         <v>1</v>
       </c>
       <c r="E124" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F124" s="1" t="n">
         <f aca="false">E124-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3626,11 +3628,11 @@
         <v>1</v>
       </c>
       <c r="E125" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F125" s="1" t="n">
         <f aca="false">E125-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3644,11 +3646,11 @@
         <v>2</v>
       </c>
       <c r="E126" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F126" s="1" t="n">
         <f aca="false">E126-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3662,11 +3664,11 @@
         <v>2</v>
       </c>
       <c r="E127" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F127" s="1" t="n">
         <f aca="false">E127-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3680,11 +3682,11 @@
         <v>3</v>
       </c>
       <c r="E128" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F128" s="1" t="n">
         <f aca="false">E128-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3698,11 +3700,11 @@
         <v>3</v>
       </c>
       <c r="E129" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F129" s="1" t="n">
         <f aca="false">E129-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,11 +3718,11 @@
         <v>2</v>
       </c>
       <c r="E130" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F130" s="1" t="n">
         <f aca="false">E130-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,11 +3736,11 @@
         <v>1</v>
       </c>
       <c r="E131" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F131" s="1" t="n">
         <f aca="false">E131-1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3752,11 +3754,11 @@
         <v>1</v>
       </c>
       <c r="E132" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F132" s="1" t="n">
         <f aca="false">E132-1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3770,11 +3772,11 @@
         <v>2</v>
       </c>
       <c r="E133" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F133" s="1" t="n">
         <f aca="false">E133-1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3788,11 +3790,11 @@
         <v>1</v>
       </c>
       <c r="E134" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F134" s="1" t="n">
         <f aca="false">E134-1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3806,11 +3808,11 @@
         <v>1</v>
       </c>
       <c r="E135" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F135" s="1" t="n">
         <f aca="false">E135-1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3824,11 +3826,11 @@
         <v>2</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F136" s="1" t="n">
         <f aca="false">E136-1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3842,11 +3844,11 @@
         <v>1</v>
       </c>
       <c r="E137" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F137" s="1" t="n">
         <f aca="false">E137-1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3860,11 +3862,11 @@
         <v>1</v>
       </c>
       <c r="E138" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F138" s="1" t="n">
         <f aca="false">E138-1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3878,11 +3880,11 @@
         <v>2</v>
       </c>
       <c r="E139" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F139" s="1" t="n">
         <f aca="false">E139-1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,11 +3898,11 @@
         <v>3</v>
       </c>
       <c r="E140" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F140" s="1" t="n">
         <f aca="false">E140-1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3914,11 +3916,11 @@
         <v>3</v>
       </c>
       <c r="E141" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F141" s="1" t="n">
         <f aca="false">E141-1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,11 +3988,11 @@
         <v>1</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F145" s="1" t="n">
         <f aca="false">E145-1</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4004,11 +4006,11 @@
         <v>1</v>
       </c>
       <c r="E146" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F146" s="1" t="n">
         <f aca="false">E146-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4022,11 +4024,11 @@
         <v>2</v>
       </c>
       <c r="E147" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F147" s="1" t="n">
         <f aca="false">E147-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4040,11 +4042,11 @@
         <v>1</v>
       </c>
       <c r="E148" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F148" s="1" t="n">
         <f aca="false">E148-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4058,11 +4060,11 @@
         <v>1</v>
       </c>
       <c r="E149" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F149" s="1" t="n">
         <f aca="false">E149-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4076,11 +4078,11 @@
         <v>2</v>
       </c>
       <c r="E150" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F150" s="1" t="n">
         <f aca="false">E150-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4094,11 +4096,11 @@
         <v>2</v>
       </c>
       <c r="E151" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F151" s="1" t="n">
         <f aca="false">E151-1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4112,11 +4114,11 @@
         <v>1</v>
       </c>
       <c r="E152" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F152" s="1" t="n">
         <f aca="false">E152-1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4130,11 +4132,11 @@
         <v>2</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F153" s="1" t="n">
         <f aca="false">E153-1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4148,11 +4150,11 @@
         <v>1</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F154" s="1" t="n">
         <f aca="false">E154-1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,11 +4168,11 @@
         <v>2</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F155" s="1" t="n">
         <f aca="false">E155-1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,11 +4186,11 @@
         <v>1</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F156" s="1" t="n">
         <f aca="false">E156-1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,11 +4204,11 @@
         <v>1</v>
       </c>
       <c r="E157" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F157" s="1" t="n">
         <f aca="false">E157-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4220,11 +4222,11 @@
         <v>1</v>
       </c>
       <c r="E158" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F158" s="1" t="n">
         <f aca="false">E158-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4238,11 +4240,11 @@
         <v>2</v>
       </c>
       <c r="E159" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F159" s="1" t="n">
         <f aca="false">E159-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4310,11 +4312,11 @@
         <v>1</v>
       </c>
       <c r="E163" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F163" s="1" t="n">
         <f aca="false">E163-1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4328,11 +4330,11 @@
         <v>1</v>
       </c>
       <c r="E164" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F164" s="1" t="n">
         <f aca="false">E164-1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4346,11 +4348,11 @@
         <v>2</v>
       </c>
       <c r="E165" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F165" s="1" t="n">
         <f aca="false">E165-1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4364,11 +4366,11 @@
         <v>1</v>
       </c>
       <c r="E166" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F166" s="1" t="n">
         <f aca="false">E166-1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4382,11 +4384,11 @@
         <v>1</v>
       </c>
       <c r="E167" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F167" s="1" t="n">
         <f aca="false">E167-1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4400,11 +4402,11 @@
         <v>2</v>
       </c>
       <c r="E168" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F168" s="1" t="n">
         <f aca="false">E168-1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4418,11 +4420,11 @@
         <v>2</v>
       </c>
       <c r="E169" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F169" s="1" t="n">
         <f aca="false">E169-1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4436,11 +4438,11 @@
         <v>1</v>
       </c>
       <c r="E170" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F170" s="1" t="n">
         <f aca="false">E170-1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,11 +4456,11 @@
         <v>2</v>
       </c>
       <c r="E171" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F171" s="1" t="n">
         <f aca="false">E171-1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4472,11 +4474,11 @@
         <v>1</v>
       </c>
       <c r="E172" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F172" s="1" t="n">
         <f aca="false">E172-1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4490,11 +4492,11 @@
         <v>2</v>
       </c>
       <c r="E173" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F173" s="1" t="n">
         <f aca="false">E173-1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4508,11 +4510,11 @@
         <v>1</v>
       </c>
       <c r="E174" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F174" s="1" t="n">
         <f aca="false">E174-1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4526,11 +4528,11 @@
         <v>1</v>
       </c>
       <c r="E175" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F175" s="1" t="n">
         <f aca="false">E175-1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4544,11 +4546,11 @@
         <v>1</v>
       </c>
       <c r="E176" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F176" s="1" t="n">
         <f aca="false">E176-1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4562,11 +4564,11 @@
         <v>2</v>
       </c>
       <c r="E177" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F177" s="1" t="n">
         <f aca="false">E177-1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4634,11 +4636,11 @@
         <v>2</v>
       </c>
       <c r="E181" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F181" s="1" t="n">
         <f aca="false">E181-1</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4652,11 +4654,11 @@
         <v>1</v>
       </c>
       <c r="E182" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F182" s="1" t="n">
         <f aca="false">E182-1</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,11 +4672,11 @@
         <v>2</v>
       </c>
       <c r="E183" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F183" s="1" t="n">
         <f aca="false">E183-1</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,11 +4690,11 @@
         <v>1</v>
       </c>
       <c r="E184" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F184" s="1" t="n">
         <f aca="false">E184-1</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4706,11 +4708,11 @@
         <v>2</v>
       </c>
       <c r="E185" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F185" s="1" t="n">
         <f aca="false">E185-1</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4724,11 +4726,11 @@
         <v>1</v>
       </c>
       <c r="E186" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F186" s="1" t="n">
         <f aca="false">E186-1</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
